--- a/list_sample.xlsx
+++ b/list_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProjects\060.smartstore_balance_price_chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA9F70C-F509-4018-AB42-2CC4138E1439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6737C103-B130-49D3-97D6-1536872CE9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product_20221209_120610 (2)" sheetId="1" r:id="rId1"/>
@@ -122,14 +122,14 @@
     <t>스킨푸드 블랙슈가 퍼펙트 클렌징 오일</t>
   </si>
   <si>
-    <t>스투시 티셔츠 모음전</t>
+    <t>3wak4lioMUyZESte0IlZUf</t>
+  </si>
+  <si>
+    <t>$2a$04$UTnob2kayAZLIXcfR.DJE.</t>
+  </si>
+  <si>
+    <t>TEST_모음딜</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3wak4lioMUyZESte0IlZUf</t>
-  </si>
-  <si>
-    <t>$2a$04$UTnob2kayAZLIXcfR.DJE.</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1380,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1413,19 +1413,19 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="11">
-        <v>8442054317</v>
+        <v>8478358420</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
